--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s2_P3_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s2_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>250.6514380881763</v>
+        <v>1293.208678324441</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.59143808817635</v>
+        <v>27.21363927694955</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>11.09940128067582</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>11.09444032816691</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.06</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -758,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -769,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -791,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -852,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17.93504247831764</v>
+        <v>17.71826622296189</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.27021167277385</v>
+        <v>18.38309702850568</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.99312545677591</v>
+        <v>3.132299474826759</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>6.125424931602669</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.97645744572761</v>
+        <v>19.67685125555192</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>26.12542493160267</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -914,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +997,118 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>192.0399999999998</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>177.55</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>178.1100000000002</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>179.6099999999998</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>185.0799999999999</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>151.0650000000013</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>143.15</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1287,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>141.6400000000013</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1298,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>144.1900000000013</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1309,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>145.6100000000013</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>147.3399999999997</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1331,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>159.2049999999997</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>140.4299999999997</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>157.7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.9949999999997</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000004</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1397,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000004</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>46.62000000000073</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.47500000000073</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.92500000000073</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>39.65500000000073</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.76000000000073</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>147.3399999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>159.2049999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>140.4299999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1518,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>157.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>152.9949999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>192.0399999999992</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>177.55</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1562,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>178.1099999999998</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>179.6099999999992</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>185.0799999999992</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1519,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -1530,7 +1697,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -1541,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -1563,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1788,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1810,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1821,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1665,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1843,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1865,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1876,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1720,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +1920,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1931,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1775,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1964,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +1986,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -1830,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1841,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1852,7 +2019,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1863,7 +2030,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1874,7 +2041,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +2055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,6 +2080,94 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
